--- a/biology/Médecine/Département_de_la_Santé_(Catalogne)/Département_de_la_Santé_(Catalogne).xlsx
+++ b/biology/Médecine/Département_de_la_Santé_(Catalogne)/Département_de_la_Santé_(Catalogne).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9partement_de_la_Sant%C3%A9_(Catalogne)</t>
+          <t>Département_de_la_Santé_(Catalogne)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le département de la Santé (en catalan : Departament de Salut) est le département de la Généralité responsable de la politique sanitaire et des établissements et équipements sociosanitaires en Catalogne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9partement_de_la_Sant%C3%A9_(Catalogne)</t>
+          <t>Département_de_la_Santé_(Catalogne)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Missions
-Le département de la Santé est responsable de l'exercice des compétences propres de la généralité de Catalogne dans les domaines de la politique sanitaire et des établissements et équipements sociosanitaires. De son ressort, dépendent le Service catalan de la Santé et l'Institut catalan de la Santé[1].
-Organisation
-Le département de la Santé s'organise de la manière suivante[2],[3] :
+          <t>Missions</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le département de la Santé est responsable de l'exercice des compétences propres de la généralité de Catalogne dans les domaines de la politique sanitaire et des établissements et équipements sociosanitaires. De son ressort, dépendent le Service catalan de la Santé et l'Institut catalan de la Santé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Département_de_la_Santé_(Catalogne)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9partement_de_la_Sant%C3%A9_(Catalogne)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Fonctions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le département de la Santé s'organise de la manière suivante, :
 Département de la Santé (Departament de Salut) ;
 Secrétariat général ;
 Direction des services ;
@@ -553,45 +605,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>D%C3%A9partement_de_la_Sant%C3%A9_(Catalogne)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/D%C3%A9partement_de_la_Sant%C3%A9_(Catalogne)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le département de la Santé et de l'Assistance sociale (Departament de Sanitat i Assistència Social) est créé le 5 décembre 1977 par le président de la Généralité Josep Tarradellas dans le cadre du rétablissement de l'autonomie de la Catalogne[4].
-Le 9 mai 1980, le président de la Généralité Jordi Pujol change son nom pour en faire le département de la Santé et de la Sécurité sociale (Departament de Sanitat i Seguretat Social)[5]. Son titre est modifié en département de la Santé (Departament de Salut) par le président de la Généralité Pasqual Maragall le 28 mai 2004[6].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9partement_de_la_Sant%C3%A9_(Catalogne)</t>
+          <t>Département_de_la_Santé_(Catalogne)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,10 +626,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le département de la Santé et de l'Assistance sociale (Departament de Sanitat i Assistència Social) est créé le 5 décembre 1977 par le président de la Généralité Josep Tarradellas dans le cadre du rétablissement de l'autonomie de la Catalogne.
+Le 9 mai 1980, le président de la Généralité Jordi Pujol change son nom pour en faire le département de la Santé et de la Sécurité sociale (Departament de Sanitat i Seguretat Social). Son titre est modifié en département de la Santé (Departament de Salut) par le président de la Généralité Pasqual Maragall le 28 mai 2004.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Département_de_la_Santé_(Catalogne)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9partement_de_la_Sant%C3%A9_(Catalogne)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Conseillers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
